--- a/src/main/resources/190-wanxin-p2p/wanxinp2p-uaa-service_structure.xlsx
+++ b/src/main/resources/190-wanxin-p2p/wanxinp2p-uaa-service_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="412">
   <si>
     <t>类名</t>
   </si>
@@ -139,7 +139,7 @@
     <t>com.wanxin.uaa.config.OauthUserApprovalHandler</t>
   </si>
   <si>
-    <t>isApproved(org.springframework.security.oauth2.provider.AuthorizationRequest)</t>
+    <t>isApproved(org.springframework.security.oauth2.provider.AuthorizationRequest,org.springframework.security.core.Authentication)</t>
   </si>
   <si>
     <t>setOauthService(com.wanxin.uaa.service.OauthService)</t>
@@ -412,7 +412,7 @@
     <t>com.wanxin.uaa.config.AuthorizationServer$1</t>
   </si>
   <si>
-    <t>enhance(org.springframework.security.oauth2.common.OAuth2AccessToken)</t>
+    <t>enhance(org.springframework.security.oauth2.common.OAuth2AccessToken,org.springframework.security.oauth2.provider.OAuth2Authentication)</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.common.OAuth2AccessToken</t>
@@ -502,7 +502,7 @@
     <t>com.wanxin.uaa.common.intercept.GlobalExceptionHandler</t>
   </si>
   <si>
-    <t>exceptionGet(javax.servlet.http.HttpServletRequest)</t>
+    <t>exceptionGet(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Exception)</t>
   </si>
   <si>
     <t>com.wanxin.uaa.common.utils.StringUtils</t>
@@ -820,13 +820,13 @@
     <t>getAuthenticationType()</t>
   </si>
   <si>
-    <t>authentication(org.springframework.security.authentication.UsernamePasswordAuthenticationToken)</t>
+    <t>authentication(java.lang.String,java.lang.String,org.springframework.security.authentication.UsernamePasswordAuthenticationToken)</t>
   </si>
   <si>
     <t>com.wanxin.uaa.domain.ClientDefaultAccessTokenConverter</t>
   </si>
   <si>
-    <t>convertAccessToken(org.springframework.security.oauth2.common.OAuth2AccessToken)</t>
+    <t>convertAccessToken(org.springframework.security.oauth2.common.OAuth2AccessToken,org.springframework.security.oauth2.provider.OAuth2Authentication)</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.provider.OAuth2Authentication</t>
@@ -853,10 +853,10 @@
     <t>org.springframework.security.core.userdetails.UserDetails</t>
   </si>
   <si>
-    <t>retrieveUser(org.springframework.security.authentication.UsernamePasswordAuthenticationToken)</t>
-  </si>
-  <si>
-    <t>additionalAuthenticationChecks(org.springframework.security.core.userdetails.UserDetails)</t>
+    <t>retrieveUser(java.lang.String,org.springframework.security.authentication.UsernamePasswordAuthenticationToken)</t>
+  </si>
+  <si>
+    <t>additionalAuthenticationChecks(org.springframework.security.core.userdetails.UserDetails,org.springframework.security.authentication.UsernamePasswordAuthenticationToken)</t>
   </si>
   <si>
     <t>clientSecret(java.lang.String)</t>
@@ -9991,7 +9991,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11311,15 +11311,32 @@
         <v>100</v>
       </c>
       <c r="B78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" t="s">
         <v>277</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>100</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>275</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>403</v>
       </c>
     </row>
